--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD28968-2B75-40A4-87C6-CB7FC8159796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>string</t>
   </si>
@@ -45,6 +39,9 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>事件id</t>
   </si>
   <si>
     <r>
@@ -77,8 +74,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.普通：生成普通敌人，从开始时间到结束时间持续生成，生成数量参数表示每秒生成的普通敌人数量；
-2.精英：生成精英敌人，仅在开始时间一次性生成，生成数量参数表示一次性生成的精英敌人数量。</t>
+      <t>zako.小怪：生成普通敌人，从开始时间到结束时间持续生成，每经过生成间隔的时间生成一次，生成数量参数表示每次生成的普通敌人数量；
+elite.精英：生成精英敌人，仅在开始时间一次性生成，生成数量参数表示一次性生成的精英敌人数量。</t>
     </r>
   </si>
   <si>
@@ -111,6 +108,9 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>生成间隔</t>
+  </si>
+  <si>
     <t>敌人种类</t>
   </si>
   <si>
@@ -163,93 +163,89 @@
     </r>
   </si>
   <si>
+    <t>event_id</t>
+  </si>
+  <si>
     <t>spawn_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成间隔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
   </si>
   <si>
     <t>tick_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>enemy_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>amount_parameter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>enemy_attribute_boost</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>enemy_barrage_boost</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_zako_slime_green</t>
-  </si>
-  <si>
-    <t>once</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_elite_slime</t>
-  </si>
-  <si>
-    <t>事件id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zako</t>
+  </si>
+  <si>
+    <t>enm_memhappy</t>
+  </si>
+  <si>
+    <t>enm_memsad</t>
+  </si>
+  <si>
+    <t>enm_mempeace</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>enm_memcolorful</t>
+  </si>
+  <si>
+    <t>enm_kedama</t>
+  </si>
+  <si>
+    <t>enm_yuurei</t>
+  </si>
+  <si>
+    <t>enm_onibi</t>
+  </si>
+  <si>
+    <t>enm_eltkedama</t>
+  </si>
+  <si>
+    <t>enm_boy</t>
+  </si>
+  <si>
+    <t>enm_girl</t>
+  </si>
+  <si>
+    <t>enm_teacher</t>
+  </si>
+  <si>
+    <t>enm_book</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +261,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -272,10 +275,147 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,38 +432,202 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -346,13 +650,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,36 +908,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -641,146 +1222,152 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.1090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.10909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7818181818182" style="2" customWidth="1"/>
+    <col min="5" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.9090909090909" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="125" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="str">
+        <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
+        <v>evt_zako_1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="116.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
@@ -792,27 +1379,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="str">
+        <f t="shared" ref="A5:A28" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
+        <v>evt_zako_2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -821,9 +1412,753 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_elite_1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_elite_2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>120</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2">
+        <v>135</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>135</v>
+      </c>
+      <c r="E13" s="2">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_elite_3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>150</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>150</v>
+      </c>
+      <c r="E15" s="2">
+        <v>180</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2">
+        <v>180</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_elite_4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>180</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>180</v>
+      </c>
+      <c r="E18" s="2">
+        <v>210</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>180</v>
+      </c>
+      <c r="E19" s="2">
+        <v>210</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_elite_5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>210</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>210</v>
+      </c>
+      <c r="E21" s="2">
+        <v>240</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_zako_14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>210</v>
+      </c>
+      <c r="E22" s="2">
+        <v>240</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>evt_elite_6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>240</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="str">
+        <f>"evt_"&amp;B24&amp;"_"&amp;C24</f>
+        <v>evt_elite_7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>240</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="str">
+        <f>"evt_"&amp;B25&amp;"_"&amp;C25</f>
+        <v>evt_zako_15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>240</v>
+      </c>
+      <c r="E25" s="2">
+        <v>270</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="str">
+        <f>"evt_"&amp;B26&amp;"_"&amp;C26</f>
+        <v>evt_zako_16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>240</v>
+      </c>
+      <c r="E26" s="2">
+        <v>270</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="str">
+        <f>"evt_"&amp;B27&amp;"_"&amp;C27</f>
+        <v>evt_elite_8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>270</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="str">
+        <f>"evt_"&amp;B28&amp;"_"&amp;C28</f>
+        <v>evt_zako_17</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <v>270</v>
+      </c>
+      <c r="E28" s="2">
+        <v>300</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="str">
+        <f>"evt_"&amp;B29&amp;"_"&amp;C29</f>
+        <v>evt_zako_18</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>270</v>
+      </c>
+      <c r="E29" s="2">
+        <v>300</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="2">
+        <v>8</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>string</t>
   </si>
@@ -196,43 +199,10 @@
     <t>zako</t>
   </si>
   <si>
-    <t>enm_memhappy</t>
-  </si>
-  <si>
-    <t>enm_memsad</t>
-  </si>
-  <si>
-    <t>enm_mempeace</t>
-  </si>
-  <si>
     <t>elite</t>
   </si>
   <si>
-    <t>enm_memcolorful</t>
-  </si>
-  <si>
-    <t>enm_kedama</t>
-  </si>
-  <si>
-    <t>enm_yuurei</t>
-  </si>
-  <si>
-    <t>enm_onibi</t>
-  </si>
-  <si>
     <t>enm_eltkedama</t>
-  </si>
-  <si>
-    <t>enm_boy</t>
-  </si>
-  <si>
-    <t>enm_girl</t>
-  </si>
-  <si>
-    <t>enm_teacher</t>
-  </si>
-  <si>
-    <t>enm_book</t>
   </si>
 </sst>
 </file>
@@ -245,7 +215,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,13 +232,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -768,137 +731,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,9 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,6 +936,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Enemy"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>enm_memhappy</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>enm_memsad</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>enm_mempeace</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>enm_kedama</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>enm_yuurei</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>enm_onibi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>enm_book</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>enm_boy</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>enm_girl</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>enm_memcolorful</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>enm_teacher</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1233,7 +1262,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1366,8 +1395,9 @@
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
+      <c r="G4" s="2" t="str">
+        <f>[1]Enemy!$A$4</f>
+        <v>enm_memhappy</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
@@ -1381,7 +1411,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="str">
-        <f t="shared" ref="A5:A28" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
+        <f t="shared" ref="A5:A29" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1399,8 +1429,9 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
+      <c r="G5" s="2" t="str">
+        <f>[1]Enemy!$A$5</f>
+        <v>enm_memsad</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
@@ -1432,8 +1463,9 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
+      <c r="G6" s="2" t="str">
+        <f>[1]Enemy!$A$6</f>
+        <v>enm_mempeace</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -1451,7 +1483,7 @@
         <v>evt_elite_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1459,8 +1491,9 @@
       <c r="D7" s="2">
         <v>60</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
+      <c r="G7" s="2" t="str">
+        <f>[1]Enemy!$A$13</f>
+        <v>enm_memcolorful</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1492,8 +1525,9 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
+      <c r="G8" s="2" t="str">
+        <f>[1]Enemy!$A$7</f>
+        <v>enm_kedama</v>
       </c>
       <c r="H8" s="2">
         <v>10</v>
@@ -1525,8 +1559,9 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
+      <c r="G9" s="2" t="str">
+        <f>[1]Enemy!$A$8</f>
+        <v>enm_yuurei</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1558,8 +1593,9 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>32</v>
+      <c r="G10" s="2" t="str">
+        <f>[1]Enemy!$A$9</f>
+        <v>enm_onibi</v>
       </c>
       <c r="H10" s="2">
         <v>15</v>
@@ -1577,7 +1613,7 @@
         <v>evt_elite_2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1585,8 +1621,8 @@
       <c r="D11" s="2">
         <v>120</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1618,8 +1654,9 @@
       <c r="F12" s="2">
         <v>1.5</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>34</v>
+      <c r="G12" s="2" t="str">
+        <f>[1]Enemy!$A$11</f>
+        <v>enm_boy</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
@@ -1651,8 +1688,9 @@
       <c r="F13" s="2">
         <v>1.5</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>35</v>
+      <c r="G13" s="2" t="str">
+        <f>[1]Enemy!$A$12</f>
+        <v>enm_girl</v>
       </c>
       <c r="H13" s="2">
         <v>10</v>
@@ -1670,7 +1708,7 @@
         <v>evt_elite_3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1678,8 +1716,9 @@
       <c r="D14" s="2">
         <v>150</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
+      <c r="G14" s="2" t="str">
+        <f>[1]Enemy!$A$15</f>
+        <v>enm_teacher</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1711,8 +1750,9 @@
       <c r="F15" s="2">
         <v>1.5</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>37</v>
+      <c r="G15" s="2" t="str">
+        <f>[1]Enemy!$A$10</f>
+        <v>enm_book</v>
       </c>
       <c r="H15" s="2">
         <v>6</v>
@@ -1744,8 +1784,9 @@
       <c r="F16" s="2">
         <v>1.5</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>25</v>
+      <c r="G16" s="2" t="str">
+        <f>[1]Enemy!$A$4</f>
+        <v>enm_memhappy</v>
       </c>
       <c r="H16" s="2">
         <v>6</v>
@@ -1763,7 +1804,7 @@
         <v>evt_elite_4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1771,8 +1812,9 @@
       <c r="D17" s="2">
         <v>180</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
+      <c r="G17" s="2" t="str">
+        <f>[1]Enemy!$A$13</f>
+        <v>enm_memcolorful</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1804,8 +1846,9 @@
       <c r="F18" s="2">
         <v>1.5</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>30</v>
+      <c r="G18" s="2" t="str">
+        <f>[1]Enemy!$A$7</f>
+        <v>enm_kedama</v>
       </c>
       <c r="H18" s="2">
         <v>7</v>
@@ -1837,8 +1880,9 @@
       <c r="F19" s="2">
         <v>1.5</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>26</v>
+      <c r="G19" s="2" t="str">
+        <f>[1]Enemy!$A$5</f>
+        <v>enm_memsad</v>
       </c>
       <c r="H19" s="2">
         <v>7</v>
@@ -1856,7 +1900,7 @@
         <v>evt_elite_5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1864,8 +1908,8 @@
       <c r="D20" s="2">
         <v>210</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>33</v>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -1897,8 +1941,9 @@
       <c r="F21" s="2">
         <v>1.5</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>31</v>
+      <c r="G21" s="2" t="str">
+        <f>[1]Enemy!$A$8</f>
+        <v>enm_yuurei</v>
       </c>
       <c r="H21" s="2">
         <v>8</v>
@@ -1930,8 +1975,9 @@
       <c r="F22" s="2">
         <v>1.5</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>27</v>
+      <c r="G22" s="2" t="str">
+        <f>[1]Enemy!$A$6</f>
+        <v>enm_mempeace</v>
       </c>
       <c r="H22" s="2">
         <v>8</v>
@@ -1949,7 +1995,7 @@
         <v>evt_elite_6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -1957,8 +2003,9 @@
       <c r="D23" s="2">
         <v>240</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
+      <c r="G23" s="2" t="str">
+        <f>[1]Enemy!$A$13</f>
+        <v>enm_memcolorful</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1972,11 +2019,11 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="str">
-        <f>"evt_"&amp;B24&amp;"_"&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>evt_elite_7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -1984,8 +2031,8 @@
       <c r="D24" s="2">
         <v>240</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>33</v>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1999,7 +2046,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="str">
-        <f>"evt_"&amp;B25&amp;"_"&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2017,8 +2064,9 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>32</v>
+      <c r="G25" s="2" t="str">
+        <f>[1]Enemy!$A$9</f>
+        <v>enm_onibi</v>
       </c>
       <c r="H25" s="2">
         <v>6</v>
@@ -2032,7 +2080,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="str">
-        <f>"evt_"&amp;B26&amp;"_"&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_16</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2050,8 +2098,9 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>37</v>
+      <c r="G26" s="2" t="str">
+        <f>[1]Enemy!$A$10</f>
+        <v>enm_book</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -2065,11 +2114,11 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="str">
-        <f>"evt_"&amp;B27&amp;"_"&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>evt_elite_8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>8</v>
@@ -2077,8 +2126,9 @@
       <c r="D27" s="2">
         <v>270</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>36</v>
+      <c r="G27" s="2" t="str">
+        <f>[1]Enemy!$A$15</f>
+        <v>enm_teacher</v>
       </c>
       <c r="H27" s="2">
         <v>2</v>
@@ -2092,7 +2142,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="str">
-        <f>"evt_"&amp;B28&amp;"_"&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_17</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2110,8 +2160,9 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>34</v>
+      <c r="G28" s="2" t="str">
+        <f>[1]Enemy!$A$11</f>
+        <v>enm_boy</v>
       </c>
       <c r="H28" s="2">
         <v>8</v>
@@ -2125,7 +2176,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="str">
-        <f>"evt_"&amp;B29&amp;"_"&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_18</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2143,8 +2194,9 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>35</v>
+      <c r="G29" s="2" t="str">
+        <f>[1]Enemy!$A$12</f>
+        <v>enm_girl</v>
       </c>
       <c r="H29" s="2">
         <v>8</v>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1262,7 +1262,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>string</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>array</t>
   </si>
   <si>
     <t>事件id</t>
@@ -121,13 +118,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">敌人属性强化
 </t>
     </r>
@@ -163,6 +153,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>生成敌人的弹幕参数替换为此处的值。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">碎片掉落倍率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人掉落的记忆碎片数值乘算该量。</t>
     </r>
   </si>
   <si>
@@ -861,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1257,12 +1266,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1276,10 +1285,11 @@
     <col min="8" max="8" width="20.5545454545455" style="2" customWidth="1"/>
     <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="22.3636363636364" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,38 +1318,44 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="125" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="125" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1375,7 +1391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
@@ -1408,8 +1424,11 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A29" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
@@ -1442,8 +1461,11 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
@@ -1476,8 +1498,11 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
@@ -1504,8 +1529,11 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
@@ -1538,8 +1566,11 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
@@ -1572,8 +1603,11 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
@@ -1606,8 +1640,11 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
@@ -1633,8 +1670,11 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
@@ -1667,8 +1707,11 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
@@ -1701,8 +1744,11 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
@@ -1729,8 +1775,11 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
@@ -1763,8 +1812,11 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
@@ -1797,8 +1849,11 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
@@ -1825,8 +1880,11 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
@@ -1859,8 +1917,11 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
@@ -1893,8 +1954,11 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
@@ -1920,8 +1984,11 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
@@ -1954,8 +2021,11 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
@@ -1988,8 +2058,11 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
@@ -2016,8 +2089,11 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
@@ -2043,8 +2119,11 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
@@ -2077,8 +2156,11 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
@@ -2111,8 +2193,11 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
@@ -2139,8 +2224,11 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
@@ -2173,8 +2261,11 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
@@ -2206,6 +2297,9 @@
       </c>
       <c r="J29" s="2">
         <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>string</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
   <si>
     <t>事件id</t>
@@ -118,6 +121,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人属性强化
 </t>
     </r>
@@ -153,22 +163,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>生成敌人的弹幕参数替换为此处的值。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">碎片掉落倍率
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人掉落的记忆碎片数值乘算该量。</t>
     </r>
   </si>
   <si>
@@ -867,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,9 +875,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,12 +1257,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1285,11 +1276,10 @@
     <col min="8" max="8" width="20.5545454545455" style="2" customWidth="1"/>
     <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.3636363636364" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,44 +1308,38 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="125" spans="1:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="125" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1391,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
@@ -1424,11 +1408,8 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A29" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
@@ -1461,11 +1442,8 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
@@ -1498,11 +1476,8 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
@@ -1529,11 +1504,8 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
@@ -1566,11 +1538,8 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
@@ -1603,11 +1572,8 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
@@ -1640,11 +1606,8 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
@@ -1670,11 +1633,8 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
@@ -1707,11 +1667,8 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
@@ -1744,11 +1701,8 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
@@ -1775,11 +1729,8 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
@@ -1812,11 +1763,8 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
@@ -1849,11 +1797,8 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
@@ -1880,11 +1825,8 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
@@ -1917,11 +1859,8 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
@@ -1954,11 +1893,8 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
@@ -1984,11 +1920,8 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
@@ -2021,11 +1954,8 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
@@ -2058,11 +1988,8 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
@@ -2089,11 +2016,8 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
@@ -2119,11 +2043,8 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
@@ -2156,11 +2077,8 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
@@ -2193,11 +2111,8 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
@@ -2224,11 +2139,8 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
@@ -2261,11 +2173,8 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
@@ -2297,9 +2206,6 @@
       </c>
       <c r="J29" s="2">
         <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>string</t>
   </si>
@@ -1257,12 +1257,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2046,165 +2046,248 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evt_zako_15</v>
+        <f>"evt_"&amp;B25&amp;"_"&amp;C25</f>
+        <v>evt_elite_8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>240</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2" t="str">
+        <f>[1]Enemy!$A$15</f>
+        <v>enm_teacher</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="str">
+        <f>"evt_"&amp;B26&amp;"_"&amp;C26</f>
+        <v>evt_zako_15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>240</v>
+      </c>
+      <c r="E26" s="2">
         <v>270</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="G26" s="2" t="str">
         <f>[1]Enemy!$A$9</f>
         <v>enm_onibi</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <v>6</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <v>2</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="str">
+        <f>"evt_"&amp;B27&amp;"_"&amp;C27</f>
         <v>evt_zako_16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>16</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>240</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>270</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="G27" s="2" t="str">
         <f>[1]Enemy!$A$10</f>
         <v>enm_book</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <v>6</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <v>2</v>
       </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evt_elite_8</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="str">
+        <f>"evt_"&amp;B28&amp;"_"&amp;C28</f>
+        <v>evt_elite_9</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
         <v>270</v>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="G28" s="2" t="str">
+        <f>[1]Enemy!$A$13</f>
+        <v>enm_memcolorful</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="str">
+        <f>"evt_"&amp;B29&amp;"_"&amp;C29</f>
+        <v>evt_elite_10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>270</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="str">
+        <f>"evt_"&amp;B30&amp;"_"&amp;C30</f>
+        <v>evt_elite_11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
+        <v>270</v>
+      </c>
+      <c r="G30" s="2" t="str">
         <f>[1]Enemy!$A$15</f>
         <v>enm_teacher</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
         <v>2</v>
       </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="str">
+        <f>"evt_"&amp;B31&amp;"_"&amp;C31</f>
         <v>evt_zako_17</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <v>17</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D31" s="2">
         <v>270</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E31" s="2">
         <v>300</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="G31" s="2" t="str">
         <f>[1]Enemy!$A$11</f>
         <v>enm_boy</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H31" s="2">
         <v>8</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I31" s="2">
         <v>2</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="str">
+        <f>"evt_"&amp;B32&amp;"_"&amp;C32</f>
         <v>evt_zako_18</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <v>18</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D32" s="2">
         <v>270</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E32" s="2">
         <v>300</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="G32" s="2" t="str">
         <f>[1]Enemy!$A$12</f>
         <v>enm_girl</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H32" s="2">
         <v>8</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I32" s="2">
         <v>2</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
     </row>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1262,7 +1262,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="str">
-        <f t="shared" ref="A5:A29" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
+        <f t="shared" ref="A5:A32" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2046,7 +2046,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="str">
-        <f>"evt_"&amp;B25&amp;"_"&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>evt_elite_8</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2074,7 +2074,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="str">
-        <f>"evt_"&amp;B26&amp;"_"&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2108,7 +2108,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="str">
-        <f>"evt_"&amp;B27&amp;"_"&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_16</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2142,7 +2142,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="str">
-        <f>"evt_"&amp;B28&amp;"_"&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>evt_elite_9</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2170,7 +2170,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="str">
-        <f>"evt_"&amp;B29&amp;"_"&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>evt_elite_10</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2197,7 +2197,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="str">
-        <f>"evt_"&amp;B30&amp;"_"&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>evt_elite_11</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="str">
-        <f>"evt_"&amp;B31&amp;"_"&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_17</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2259,7 +2259,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="str">
-        <f>"evt_"&amp;B32&amp;"_"&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>evt_zako_18</v>
       </c>
       <c r="B32" s="2" t="s">

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1533,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="2">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="2">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="2">
-        <v>1.75</v>
+        <v>8.5</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="2">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="2">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1260,9 +1260,9 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2238,7 +2238,7 @@
         <v>270</v>
       </c>
       <c r="E31" s="2">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>270</v>
       </c>
       <c r="E32" s="2">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00FF116-C6D6-49D2-AFA3-3A165B3265E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView xWindow="6195" yWindow="90" windowWidth="28800" windowHeight="17850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>string</t>
   </si>
@@ -204,18 +210,33 @@
   <si>
     <t>enm_eltkedama</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">速度强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的速度在基础值的基础上乘算该数值。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_boost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,150 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -395,202 +272,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -613,255 +326,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,69 +348,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1251,35 +684,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.10909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.9090909090909" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +742,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="125" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1342,8 +777,11 @@
       <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1374,8 +812,11 @@
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
@@ -1408,8 +849,11 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A32" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
@@ -1442,8 +886,11 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
@@ -1476,8 +923,11 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
@@ -1504,8 +954,11 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
@@ -1538,8 +991,11 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
@@ -1572,8 +1028,11 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
@@ -1606,8 +1065,11 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
@@ -1633,8 +1095,11 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
@@ -1667,8 +1132,11 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
@@ -1701,8 +1169,11 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
@@ -1729,8 +1200,11 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
@@ -1763,8 +1237,11 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
@@ -1797,8 +1274,11 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
@@ -1825,8 +1305,11 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
@@ -1859,8 +1342,11 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
@@ -1893,8 +1379,11 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
@@ -1920,8 +1409,11 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
@@ -1954,8 +1446,11 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
@@ -1988,8 +1483,11 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
@@ -2016,8 +1514,11 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
@@ -2043,8 +1544,11 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
@@ -2071,8 +1575,11 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
@@ -2105,8 +1612,11 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
@@ -2139,8 +1649,11 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_9</v>
@@ -2167,8 +1680,11 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_10</v>
@@ -2194,8 +1710,11 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_11</v>
@@ -2222,8 +1741,11 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
@@ -2256,8 +1778,11 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
@@ -2290,10 +1815,13 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
+      <c r="K32" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00FF116-C6D6-49D2-AFA3-3A165B3265E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D1533-770A-410C-B046-28BA804A3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="90" windowWidth="28800" windowHeight="17850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>string</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>事件id</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <r>
@@ -61,6 +64,140 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">开始时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单位为秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>生成间隔</t>
+  </si>
+  <si>
+    <t>敌人种类</t>
+  </si>
+  <si>
+    <t>生成数量参数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">敌人属性强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的伤害、血量、速度在基础值的基础上乘算该数值。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">敌人弹幕强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的弹幕参数替换为此处的值。</t>
+    </r>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>spawn_type</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>tick_time</t>
+  </si>
+  <si>
+    <t>enemy_type</t>
+  </si>
+  <si>
+    <t>amount_parameter</t>
+  </si>
+  <si>
+    <t>enemy_attribute_boost</t>
+  </si>
+  <si>
+    <t>enemy_barrage_boost</t>
+  </si>
+  <si>
+    <t>zako</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>enm_eltkedama</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">速度强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的速度在基础值的基础上乘算该数值。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_boost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">类型
 </t>
     </r>
@@ -84,151 +221,17 @@
         <scheme val="minor"/>
       </rPr>
       <t>zako.小怪：生成普通敌人，从开始时间到结束时间持续生成，每经过生成间隔的时间生成一次，生成数量参数表示每次生成的普通敌人数量；
-elite.精英：生成精英敌人，仅在开始时间一次性生成，生成数量参数表示一次性生成的精英敌人数量。</t>
-    </r>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始时间
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单位为秒。</t>
-    </r>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>生成间隔</t>
-  </si>
-  <si>
-    <t>敌人种类</t>
-  </si>
-  <si>
-    <t>生成数量参数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">敌人属性强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的伤害、血量、速度在基础值的基础上乘算该数值。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">敌人弹幕强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的弹幕参数替换为此处的值。</t>
-    </r>
-  </si>
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>spawn_type</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>tick_time</t>
-  </si>
-  <si>
-    <t>enemy_type</t>
-  </si>
-  <si>
-    <t>amount_parameter</t>
-  </si>
-  <si>
-    <t>enemy_attribute_boost</t>
-  </si>
-  <si>
-    <t>enemy_barrage_boost</t>
-  </si>
-  <si>
-    <t>zako</t>
-  </si>
-  <si>
-    <t>elite</t>
-  </si>
-  <si>
-    <t>enm_eltkedama</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">速度强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的速度在基础值的基础上乘算该数值。</t>
+elite.精英：生成精英敌人，仅在开始时间一次性生成，生成数量参数表示一次性生成的精英敌人数量；
+boss.BOSS：进入BOSS战，BOSS战结束后本关卡便会结束。</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>speed_boost</t>
+    <t>boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K32"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -746,74 +752,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -822,7 +828,7 @@
         <v>evt_zako_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -859,7 +865,7 @@
         <v>evt_zako_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -896,7 +902,7 @@
         <v>evt_zako_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -933,7 +939,7 @@
         <v>evt_elite_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -964,7 +970,7 @@
         <v>evt_zako_4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1001,7 +1007,7 @@
         <v>evt_zako_5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1038,7 +1044,7 @@
         <v>evt_zako_6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1075,7 +1081,7 @@
         <v>evt_elite_2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1084,7 +1090,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1105,7 +1111,7 @@
         <v>evt_zako_7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>7</v>
@@ -1142,7 +1148,7 @@
         <v>evt_zako_8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -1179,7 +1185,7 @@
         <v>evt_elite_3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1210,7 +1216,7 @@
         <v>evt_zako_9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -1247,7 +1253,7 @@
         <v>evt_zako_10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -1284,7 +1290,7 @@
         <v>evt_elite_4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1315,7 +1321,7 @@
         <v>evt_zako_11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
@@ -1352,7 +1358,7 @@
         <v>evt_zako_12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -1389,7 +1395,7 @@
         <v>evt_elite_5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1398,7 +1404,7 @@
         <v>210</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -1419,7 +1425,7 @@
         <v>evt_zako_13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
@@ -1456,7 +1462,7 @@
         <v>evt_zako_14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
@@ -1493,7 +1499,7 @@
         <v>evt_elite_6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -1524,7 +1530,7 @@
         <v>evt_elite_7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -1533,7 +1539,7 @@
         <v>240</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1554,7 +1560,7 @@
         <v>evt_elite_8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -1585,7 +1591,7 @@
         <v>evt_zako_15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -1622,7 +1628,7 @@
         <v>evt_zako_16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
         <v>16</v>
@@ -1659,7 +1665,7 @@
         <v>evt_elite_9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -1690,7 +1696,7 @@
         <v>evt_elite_10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -1699,7 +1705,7 @@
         <v>270</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1720,7 +1726,7 @@
         <v>evt_elite_11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -1751,7 +1757,7 @@
         <v>evt_zako_17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
         <v>17</v>
@@ -1760,7 +1766,7 @@
         <v>270</v>
       </c>
       <c r="E31" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1788,7 +1794,7 @@
         <v>evt_zako_18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2">
         <v>18</v>
@@ -1797,7 +1803,7 @@
         <v>270</v>
       </c>
       <c r="E32" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -1817,6 +1823,17 @@
       </c>
       <c r="K32" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D1533-770A-410C-B046-28BA804A3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAAA39-D684-46EA-B3DC-731B00E1AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1716" yWindow="1584" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>string</t>
   </si>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>keine</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -699,25 +703,25 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="164.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -822,7 +826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
@@ -859,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A32" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
@@ -896,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
@@ -933,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
@@ -964,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
@@ -1001,7 +1005,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
@@ -1038,7 +1042,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
@@ -1075,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
@@ -1105,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
@@ -1142,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
@@ -1179,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
@@ -1210,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
@@ -1247,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
@@ -1284,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
@@ -1315,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
@@ -1352,7 +1356,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
@@ -1389,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
@@ -1419,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
@@ -1456,7 +1460,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
@@ -1493,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
@@ -1524,7 +1528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
@@ -1554,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
@@ -1585,7 +1589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
@@ -1622,7 +1626,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
@@ -1659,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_9</v>
@@ -1690,7 +1694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_10</v>
@@ -1720,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_11</v>
@@ -1751,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
@@ -1788,7 +1792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
@@ -1825,7 +1829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
@@ -1834,6 +1838,12 @@
       </c>
       <c r="D33" s="2">
         <v>360</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAAA39-D684-46EA-B3DC-731B00E1AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="1584" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -53,9 +47,6 @@
     <t>事件id</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -64,140 +55,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">开始时间
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单位为秒。</t>
-    </r>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>生成间隔</t>
-  </si>
-  <si>
-    <t>敌人种类</t>
-  </si>
-  <si>
-    <t>生成数量参数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">敌人属性强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的伤害、血量、速度在基础值的基础上乘算该数值。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">敌人弹幕强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的弹幕参数替换为此处的值。</t>
-    </r>
-  </si>
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>spawn_type</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>tick_time</t>
-  </si>
-  <si>
-    <t>enemy_type</t>
-  </si>
-  <si>
-    <t>amount_parameter</t>
-  </si>
-  <si>
-    <t>enemy_attribute_boost</t>
-  </si>
-  <si>
-    <t>enemy_barrage_boost</t>
-  </si>
-  <si>
-    <t>zako</t>
-  </si>
-  <si>
-    <t>elite</t>
-  </si>
-  <si>
-    <t>enm_eltkedama</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">速度强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的速度在基础值的基础上乘算该数值。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed_boost</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">类型
 </t>
     </r>
@@ -224,26 +81,163 @@
 elite.精英：生成精英敌人，仅在开始时间一次性生成，生成数量参数表示一次性生成的精英敌人数量；
 boss.BOSS：进入BOSS战，BOSS战结束后本关卡便会结束。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单位为秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>生成间隔</t>
+  </si>
+  <si>
+    <t>敌人种类</t>
+  </si>
+  <si>
+    <t>生成数量参数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">敌人属性强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的伤害、血量、速度在基础值的基础上乘算该数值。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">敌人弹幕强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的弹幕参数替换为此处的值。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">速度强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的速度在基础值的基础上乘算该数值。</t>
+    </r>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>spawn_type</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>tick_time</t>
+  </si>
+  <si>
+    <t>enemy_type</t>
+  </si>
+  <si>
+    <t>amount_parameter</t>
+  </si>
+  <si>
+    <t>enemy_attribute_boost</t>
+  </si>
+  <si>
+    <t>enemy_barrage_boost</t>
+  </si>
+  <si>
+    <t>speed_boost</t>
+  </si>
+  <si>
+    <t>zako</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>enm_eltkedama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>keine</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +260,164 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -279,38 +431,202 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,9 +649,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -352,37 +910,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -694,34 +1296,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.1090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.10909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7818181818182" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="18.8909090909091" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.4454545454545" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.8181818181818" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,83 +1360,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="164.4" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="151" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -863,13 +1467,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A32" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -900,13 +1504,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -937,13 +1541,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -968,13 +1572,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1005,13 +1609,13 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1042,13 +1646,13 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1079,13 +1683,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1094,7 +1698,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1109,13 +1713,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>7</v>
@@ -1146,13 +1750,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -1183,13 +1787,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1214,13 +1818,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -1251,13 +1855,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -1288,13 +1892,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1319,13 +1923,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
@@ -1356,13 +1960,13 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -1393,13 +1997,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1408,7 +2012,7 @@
         <v>210</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -1423,13 +2027,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
@@ -1460,13 +2064,13 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
@@ -1497,13 +2101,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -1528,13 +2132,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -1543,7 +2147,7 @@
         <v>240</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1558,13 +2162,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -1589,13 +2193,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -1626,13 +2230,13 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>16</v>
@@ -1663,13 +2267,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -1694,13 +2298,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -1709,7 +2313,7 @@
         <v>270</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1724,13 +2328,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -1755,13 +2359,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <v>17</v>
@@ -1792,13 +2396,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <v>18</v>
@@ -1829,17 +2433,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>360</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="2">
@@ -1847,8 +2451,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">类型
 </t>
     </r>
@@ -122,6 +115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人属性强化
 </t>
     </r>
@@ -138,6 +138,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人弹幕强化
 </t>
     </r>
@@ -218,7 +225,7 @@
     <t>enm_eltkedama</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>evt_boss</t>
   </si>
   <si>
     <t>boss</t>
@@ -237,7 +244,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,20 +261,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -767,137 +760,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,17 +903,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1305,9 +1289,9 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1370,7 +1354,7 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1385,10 +1369,10 @@
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1426,7 +1410,7 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2434,16 +2418,16 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>360</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="2">

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45084B93-AEF4-40B6-BA96-A083794D4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,6 +60,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -67,6 +72,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,6 +90,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,6 +102,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,29 +127,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">敌人属性强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的伤害、血量、速度在基础值的基础上乘算该数值。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -153,6 +139,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -165,6 +152,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +164,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,18 +222,30 @@
   <si>
     <t>keine</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">敌人属性强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的伤害、血量在基础值的基础上乘算该数值。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +257,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,157 +265,15 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -421,205 +281,27 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -642,251 +324,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,68 +347,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1280,36 +676,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.10909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.8909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.4454545454545" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="151" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="151" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1370,57 +765,57 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1432,14 +827,14 @@
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>[1]Enemy!$A$4</f>
         <v>enm_memhappy</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1451,13 +846,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A32" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1469,14 +864,14 @@
         <v>40</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>[1]Enemy!$A$5</f>
         <v>enm_memsad</v>
       </c>
       <c r="H5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1488,13 +883,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1506,14 +901,14 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>[1]Enemy!$A$6</f>
         <v>enm_mempeace</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1525,13 +920,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1547,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1556,13 +951,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1584,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1593,13 +988,13 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1618,10 +1013,10 @@
         <v>enm_yuurei</v>
       </c>
       <c r="H9" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1630,13 +1025,13 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1658,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1667,13 +1062,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1682,7 +1077,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1697,13 +1092,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>7</v>
@@ -1722,10 +1117,10 @@
         <v>enm_boy</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1734,13 +1129,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -1759,10 +1154,10 @@
         <v>enm_girl</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1771,13 +1166,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1802,13 +1197,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -1827,7 +1222,7 @@
         <v>enm_book</v>
       </c>
       <c r="H15" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2">
         <v>6</v>
@@ -1839,13 +1234,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -1864,10 +1259,10 @@
         <v>enm_memhappy</v>
       </c>
       <c r="H16" s="2">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
         <v>6</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1876,13 +1271,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1907,13 +1302,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
@@ -1925,7 +1320,7 @@
         <v>210</v>
       </c>
       <c r="F18" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="str">
         <f>[1]Enemy!$A$7</f>
@@ -1944,13 +1339,13 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -1962,7 +1357,7 @@
         <v>210</v>
       </c>
       <c r="F19" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>[1]Enemy!$A$5</f>
@@ -1981,13 +1376,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1996,7 +1391,7 @@
         <v>210</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -2011,13 +1406,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
@@ -2029,7 +1424,7 @@
         <v>240</v>
       </c>
       <c r="F21" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="str">
         <f>[1]Enemy!$A$8</f>
@@ -2048,13 +1443,13 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
@@ -2066,7 +1461,7 @@
         <v>240</v>
       </c>
       <c r="F22" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="str">
         <f>[1]Enemy!$A$6</f>
@@ -2085,13 +1480,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -2116,13 +1511,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -2131,7 +1526,7 @@
         <v>240</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -2146,13 +1541,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -2177,13 +1572,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -2195,7 +1590,7 @@
         <v>270</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2" t="str">
         <f>[1]Enemy!$A$9</f>
@@ -2205,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2214,13 +1609,13 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>16</v>
@@ -2232,7 +1627,7 @@
         <v>270</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="str">
         <f>[1]Enemy!$A$10</f>
@@ -2242,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2251,13 +1646,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -2273,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2282,13 +1677,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -2297,13 +1692,13 @@
         <v>270</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2312,13 +1707,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -2334,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2343,13 +1738,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
         <v>17</v>
@@ -2361,7 +1756,7 @@
         <v>350</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="str">
         <f>[1]Enemy!$A$11</f>
@@ -2371,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2380,13 +1775,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
         <v>18</v>
@@ -2398,7 +1793,7 @@
         <v>350</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2" t="str">
         <f>[1]Enemy!$A$12</f>
@@ -2408,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2417,26 +1812,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>360</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45084B93-AEF4-40B6-BA96-A083794D4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C1B2D7-E212-4383-BAED-1FC742B5A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,8 +685,8 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="B18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/settings/data/StageProcess.xlsx
+++ b/settings/data/StageProcess.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C1B2D7-E212-4383-BAED-1FC742B5A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,6 +60,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -67,6 +72,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,6 +90,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,6 +102,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,29 +127,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">敌人属性强化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成敌人的伤害、血量、速度在基础值的基础上乘算该数值。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -153,6 +139,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -165,6 +152,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +164,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,18 +222,30 @@
   <si>
     <t>keine</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">敌人属性强化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成敌人的伤害、血量在基础值的基础上乘算该数值。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +257,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,157 +265,15 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -421,205 +281,27 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -642,251 +324,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,68 +347,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1280,36 +676,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="B18:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.10909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.8909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.4454545454545" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.4454545454545" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.7818181818182" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="151" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="151" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1370,57 +765,57 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>"evt_"&amp;B4&amp;"_"&amp;C4</f>
         <v>evt_zako_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1432,14 +827,14 @@
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>[1]Enemy!$A$4</f>
         <v>enm_memhappy</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1451,13 +846,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A32" si="0">"evt_"&amp;B5&amp;"_"&amp;C5</f>
         <v>evt_zako_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1469,14 +864,14 @@
         <v>40</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>[1]Enemy!$A$5</f>
         <v>enm_memsad</v>
       </c>
       <c r="H5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1488,13 +883,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1506,14 +901,14 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>[1]Enemy!$A$6</f>
         <v>enm_mempeace</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1525,13 +920,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1547,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1556,13 +951,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1584,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1593,13 +988,13 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1618,10 +1013,10 @@
         <v>enm_yuurei</v>
       </c>
       <c r="H9" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1630,13 +1025,13 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1658,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1667,13 +1062,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1682,7 +1077,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1697,13 +1092,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>7</v>
@@ -1722,10 +1117,10 @@
         <v>enm_boy</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1734,13 +1129,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -1759,10 +1154,10 @@
         <v>enm_girl</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1771,13 +1166,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1802,13 +1197,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -1827,7 +1222,7 @@
         <v>enm_book</v>
       </c>
       <c r="H15" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2">
         <v>6</v>
@@ -1839,13 +1234,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -1864,10 +1259,10 @@
         <v>enm_memhappy</v>
       </c>
       <c r="H16" s="2">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
         <v>6</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1876,13 +1271,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1907,13 +1302,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
@@ -1925,7 +1320,7 @@
         <v>210</v>
       </c>
       <c r="F18" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="str">
         <f>[1]Enemy!$A$7</f>
@@ -1944,13 +1339,13 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -1962,7 +1357,7 @@
         <v>210</v>
       </c>
       <c r="F19" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>[1]Enemy!$A$5</f>
@@ -1981,13 +1376,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1996,7 +1391,7 @@
         <v>210</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -2011,13 +1406,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
@@ -2029,7 +1424,7 @@
         <v>240</v>
       </c>
       <c r="F21" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="str">
         <f>[1]Enemy!$A$8</f>
@@ -2048,13 +1443,13 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
@@ -2066,7 +1461,7 @@
         <v>240</v>
       </c>
       <c r="F22" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="str">
         <f>[1]Enemy!$A$6</f>
@@ -2085,13 +1480,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -2116,13 +1511,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -2131,7 +1526,7 @@
         <v>240</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -2146,13 +1541,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -2177,13 +1572,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -2195,7 +1590,7 @@
         <v>270</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2" t="str">
         <f>[1]Enemy!$A$9</f>
@@ -2205,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2214,13 +1609,13 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>16</v>
@@ -2232,7 +1627,7 @@
         <v>270</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="str">
         <f>[1]Enemy!$A$10</f>
@@ -2242,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2251,13 +1646,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -2273,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2282,13 +1677,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -2297,13 +1692,13 @@
         <v>270</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2312,13 +1707,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_elite_11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -2334,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2343,13 +1738,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
         <v>17</v>
@@ -2361,7 +1756,7 @@
         <v>350</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="str">
         <f>[1]Enemy!$A$11</f>
@@ -2371,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2380,13 +1775,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>evt_zako_18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
         <v>18</v>
@@ -2398,7 +1793,7 @@
         <v>350</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2" t="str">
         <f>[1]Enemy!$A$12</f>
@@ -2408,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2417,26 +1812,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>360</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>